--- a/MESWebApi/Template/电子工艺.xlsx
+++ b/MESWebApi/Template/电子工艺.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="151">
   <si>
     <t>工艺文件编号</t>
   </si>
@@ -589,33 +589,6 @@
   <si>
     <t>1_675-WUB_29.pdf</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
   </si>
 </sst>
 </file>
@@ -704,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,14 +699,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1012,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1089,11 +1059,11 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>152</v>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1110,11 +1080,11 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>153</v>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -1131,11 +1101,11 @@
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>154</v>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1152,11 +1122,11 @@
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>155</v>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
@@ -1173,11 +1143,11 @@
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>156</v>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
@@ -1194,11 +1164,11 @@
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>157</v>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -1215,11 +1185,11 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>158</v>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>17</v>
@@ -1236,11 +1206,11 @@
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>159</v>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>17</v>
@@ -1257,11 +1227,11 @@
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>152</v>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>29</v>
@@ -1278,11 +1248,11 @@
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>153</v>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>29</v>
@@ -1299,11 +1269,11 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>154</v>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>29</v>
@@ -1320,11 +1290,11 @@
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>155</v>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>29</v>
@@ -1341,11 +1311,11 @@
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>156</v>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>29</v>
@@ -1362,11 +1332,11 @@
       <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>157</v>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>29</v>
@@ -1383,11 +1353,11 @@
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>158</v>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>29</v>
@@ -1404,11 +1374,11 @@
       <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>159</v>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>29</v>
@@ -1425,11 +1395,11 @@
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>152</v>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>43</v>
@@ -1446,11 +1416,11 @@
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>153</v>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>43</v>
@@ -1467,11 +1437,11 @@
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>154</v>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
@@ -1488,11 +1458,11 @@
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>155</v>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
@@ -1509,11 +1479,11 @@
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>156</v>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>46</v>
@@ -1530,11 +1500,11 @@
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>157</v>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>46</v>
@@ -1551,11 +1521,11 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>158</v>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>46</v>
@@ -1572,11 +1542,11 @@
       <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>159</v>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>53</v>
@@ -1593,11 +1563,11 @@
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>152</v>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>21</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>53</v>
@@ -1614,11 +1584,11 @@
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>153</v>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>53</v>
@@ -1635,11 +1605,11 @@
       <c r="C28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>154</v>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>53</v>
@@ -1656,11 +1626,11 @@
       <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>155</v>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>53</v>
@@ -1677,11 +1647,11 @@
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>156</v>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>25</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>53</v>
@@ -1698,11 +1668,11 @@
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>157</v>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>53</v>
@@ -1719,11 +1689,11 @@
       <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>158</v>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>53</v>
@@ -1740,11 +1710,11 @@
       <c r="C33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>159</v>
+      <c r="D33" s="9">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>53</v>
@@ -1761,11 +1731,11 @@
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>152</v>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>65</v>
@@ -1782,11 +1752,11 @@
       <c r="C35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>153</v>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>65</v>
@@ -1803,11 +1773,11 @@
       <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>154</v>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>23</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>65</v>
@@ -1824,11 +1794,11 @@
       <c r="C37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>155</v>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>65</v>
@@ -1845,11 +1815,11 @@
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>156</v>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>65</v>
@@ -1866,11 +1836,11 @@
       <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>157</v>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>26</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>65</v>
@@ -1887,11 +1857,11 @@
       <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>158</v>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>28</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>65</v>
@@ -1908,11 +1878,11 @@
       <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>159</v>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>65</v>
@@ -1929,11 +1899,11 @@
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>152</v>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
+        <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>75</v>
@@ -1950,11 +1920,11 @@
       <c r="C43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>153</v>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10">
+        <v>22</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>77</v>
@@ -1971,11 +1941,11 @@
       <c r="C44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>154</v>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>23</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>75</v>
@@ -1992,11 +1962,11 @@
       <c r="C45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>155</v>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>80</v>
@@ -2013,11 +1983,11 @@
       <c r="C46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>156</v>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>25</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>77</v>
@@ -2034,11 +2004,11 @@
       <c r="C47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>157</v>
+      <c r="D47" s="9">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>77</v>
@@ -2055,11 +2025,11 @@
       <c r="C48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>158</v>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>28</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>75</v>
@@ -2076,11 +2046,11 @@
       <c r="C49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>159</v>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>75</v>
@@ -2097,11 +2067,11 @@
       <c r="C50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>152</v>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>21</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>87</v>
@@ -2118,11 +2088,11 @@
       <c r="C51" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>153</v>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="10">
+        <v>22</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>87</v>
@@ -2139,11 +2109,11 @@
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>154</v>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
+        <v>23</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>87</v>
@@ -2160,11 +2130,11 @@
       <c r="C53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>155</v>
+      <c r="D53" s="9">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>24</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>87</v>
@@ -2181,11 +2151,11 @@
       <c r="C54" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>156</v>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>25</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>87</v>
@@ -2202,11 +2172,11 @@
       <c r="C55" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>157</v>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>87</v>
@@ -2223,11 +2193,11 @@
       <c r="C56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>158</v>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>87</v>
@@ -2244,11 +2214,11 @@
       <c r="C57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>159</v>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>87</v>
@@ -2265,11 +2235,11 @@
       <c r="C58" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>152</v>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>21</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>96</v>
@@ -2286,11 +2256,11 @@
       <c r="C59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>153</v>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>22</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>96</v>
@@ -2307,11 +2277,11 @@
       <c r="C60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>154</v>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>23</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>99</v>
@@ -2328,11 +2298,11 @@
       <c r="C61" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>155</v>
+      <c r="D61" s="9">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>99</v>
@@ -2349,11 +2319,11 @@
       <c r="C62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>156</v>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>25</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>99</v>
@@ -2370,11 +2340,11 @@
       <c r="C63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>157</v>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
+        <v>26</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>99</v>
@@ -2391,11 +2361,11 @@
       <c r="C64" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>158</v>
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10">
+        <v>28</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>99</v>
@@ -2412,11 +2382,11 @@
       <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>159</v>
+      <c r="D65" s="9">
+        <v>1</v>
+      </c>
+      <c r="E65" s="10">
+        <v>29</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>99</v>
@@ -2433,11 +2403,11 @@
       <c r="C66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>152</v>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>21</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>107</v>
@@ -2454,11 +2424,11 @@
       <c r="C67" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>153</v>
+      <c r="D67" s="9">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
+        <v>22</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>107</v>
@@ -2475,11 +2445,11 @@
       <c r="C68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>154</v>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10">
+        <v>23</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>107</v>
@@ -2496,11 +2466,11 @@
       <c r="C69" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>155</v>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>107</v>
@@ -2517,11 +2487,11 @@
       <c r="C70" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>156</v>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>25</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>107</v>
@@ -2538,11 +2508,11 @@
       <c r="C71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>157</v>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10">
+        <v>26</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>107</v>
@@ -2559,11 +2529,11 @@
       <c r="C72" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>158</v>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10">
+        <v>28</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>107</v>
@@ -2580,11 +2550,11 @@
       <c r="C73" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>159</v>
+      <c r="D73" s="9">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10">
+        <v>29</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>107</v>
@@ -2601,11 +2571,11 @@
       <c r="C74" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>152</v>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10">
+        <v>21</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>116</v>
@@ -2622,11 +2592,11 @@
       <c r="C75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>153</v>
+      <c r="D75" s="9">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10">
+        <v>22</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>116</v>
@@ -2643,11 +2613,11 @@
       <c r="C76" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>154</v>
+      <c r="D76" s="9">
+        <v>1</v>
+      </c>
+      <c r="E76" s="10">
+        <v>23</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>116</v>
@@ -2664,11 +2634,11 @@
       <c r="C77" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>155</v>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10">
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>116</v>
@@ -2685,11 +2655,11 @@
       <c r="C78" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>156</v>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="10">
+        <v>25</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>116</v>
@@ -2706,11 +2676,11 @@
       <c r="C79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>157</v>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79" s="10">
+        <v>26</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>116</v>
@@ -2727,11 +2697,11 @@
       <c r="C80" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>158</v>
+      <c r="D80" s="9">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10">
+        <v>28</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>116</v>
@@ -2748,11 +2718,11 @@
       <c r="C81" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>159</v>
+      <c r="D81" s="9">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
+        <v>29</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>116</v>
@@ -2769,11 +2739,11 @@
       <c r="C82" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>152</v>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10">
+        <v>21</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>125</v>
@@ -2790,11 +2760,11 @@
       <c r="C83" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>153</v>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10">
+        <v>22</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>125</v>
@@ -2811,11 +2781,11 @@
       <c r="C84" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>154</v>
+      <c r="D84" s="9">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10">
+        <v>23</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>125</v>
@@ -2832,11 +2802,11 @@
       <c r="C85" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>155</v>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>125</v>
@@ -2853,11 +2823,11 @@
       <c r="C86" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>156</v>
+      <c r="D86" s="9">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
+        <v>25</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>125</v>
@@ -2874,11 +2844,11 @@
       <c r="C87" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>157</v>
+      <c r="D87" s="9">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10">
+        <v>26</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>125</v>
@@ -2895,11 +2865,11 @@
       <c r="C88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>158</v>
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10">
+        <v>28</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>125</v>
@@ -2916,11 +2886,11 @@
       <c r="C89" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>159</v>
+      <c r="D89" s="9">
+        <v>1</v>
+      </c>
+      <c r="E89" s="10">
+        <v>29</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>125</v>
@@ -2937,11 +2907,11 @@
       <c r="C90" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>152</v>
+      <c r="D90" s="9">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <v>21</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>134</v>
@@ -2958,11 +2928,11 @@
       <c r="C91" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>153</v>
+      <c r="D91" s="9">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <v>22</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>134</v>
@@ -2979,11 +2949,11 @@
       <c r="C92" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>154</v>
+      <c r="D92" s="9">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
+        <v>23</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>134</v>
@@ -3000,11 +2970,11 @@
       <c r="C93" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>155</v>
+      <c r="D93" s="9">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <v>24</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>134</v>
@@ -3021,11 +2991,11 @@
       <c r="C94" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>156</v>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <v>25</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>134</v>
@@ -3042,11 +3012,11 @@
       <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>157</v>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <v>26</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>134</v>
@@ -3063,11 +3033,11 @@
       <c r="C96" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>158</v>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <v>28</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>134</v>
@@ -3084,11 +3054,11 @@
       <c r="C97" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>159</v>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
+        <v>29</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>134</v>
@@ -3105,11 +3075,11 @@
       <c r="C98" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>152</v>
+      <c r="D98" s="9">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <v>21</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>143</v>
@@ -3126,11 +3096,11 @@
       <c r="C99" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>153</v>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <v>22</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>143</v>
@@ -3147,11 +3117,11 @@
       <c r="C100" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D100" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>154</v>
+      <c r="D100" s="9">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <v>23</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>143</v>
@@ -3168,11 +3138,11 @@
       <c r="C101" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D101" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>155</v>
+      <c r="D101" s="9">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <v>24</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>143</v>
@@ -3189,11 +3159,11 @@
       <c r="C102" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>156</v>
+      <c r="D102" s="9">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <v>25</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>143</v>
@@ -3210,11 +3180,11 @@
       <c r="C103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>157</v>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <v>26</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>143</v>
@@ -3231,11 +3201,11 @@
       <c r="C104" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>158</v>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
+        <v>28</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>143</v>
@@ -3252,11 +3222,11 @@
       <c r="C105" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>159</v>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10">
+        <v>29</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>143</v>
